--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject38.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject38.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.7877880531143715</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -167,7 +167,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1" s="0">
         <v>0</v>
@@ -176,10 +176,10 @@
         <v>0</v>
       </c>
       <c r="Q1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S1" s="0">
         <v>0</v>
@@ -194,7 +194,7 @@
         <v>0</v>
       </c>
       <c r="W1" s="0">
-        <v>0</v>
+        <v>0.55164314465729269</v>
       </c>
       <c r="X1" s="0">
         <v>0</v>
@@ -203,7 +203,7 @@
         <v>0</v>
       </c>
       <c r="Z1" s="0">
-        <v>0</v>
+        <v>0.98515979264737519</v>
       </c>
       <c r="AA1" s="0">
         <v>0</v>
@@ -317,7 +317,7 @@
         <v>0</v>
       </c>
       <c r="BL1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.71229960029974548</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="0">
         <v>0</v>
@@ -406,7 +406,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="0">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="AO2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="0">
         <v>0</v>
@@ -493,16 +493,16 @@
         <v>0</v>
       </c>
       <c r="BB2" s="0">
-        <v>1</v>
+        <v>0.91258304955379232</v>
       </c>
       <c r="BC2" s="0">
         <v>0</v>
       </c>
       <c r="BD2" s="0">
-        <v>0</v>
+        <v>0.92299787241570586</v>
       </c>
       <c r="BE2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="0">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="0">
-        <v>0</v>
+        <v>0.60124443960101137</v>
       </c>
       <c r="BK2" s="0">
         <v>0</v>
@@ -555,10 +555,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>0</v>
+        <v>0.73968106860778149</v>
       </c>
       <c r="O3" s="0">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="AX3" s="0">
-        <v>0</v>
+        <v>0.9002131588729454</v>
       </c>
       <c r="AY3" s="0">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="BF3" s="0">
-        <v>1</v>
+        <v>0.9904229801791431</v>
       </c>
       <c r="BG3" s="0">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="BL3" s="0">
-        <v>0</v>
+        <v>0.80317049291677645</v>
       </c>
       <c r="BM3" s="0">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="Z4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="0">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="0">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="AT4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="0">
         <v>0</v>
@@ -893,16 +893,16 @@
         <v>0</v>
       </c>
       <c r="AX4" s="0">
-        <v>0</v>
+        <v>0.87188344839774246</v>
       </c>
       <c r="AY4" s="0">
         <v>0</v>
       </c>
       <c r="AZ4" s="0">
-        <v>0</v>
+        <v>0.50995204950912876</v>
       </c>
       <c r="BA4" s="0">
-        <v>0</v>
+        <v>0.96523102118340109</v>
       </c>
       <c r="BB4" s="0">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="BE4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="0">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="0">
-        <v>0</v>
+        <v>0.90489488738176038</v>
       </c>
       <c r="BJ4" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.59229305367979102</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="0">
-        <v>0</v>
+        <v>0.93726202617825582</v>
       </c>
       <c r="Y5" s="0">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="0">
-        <v>0</v>
+        <v>0.88642792516529201</v>
       </c>
       <c r="AD5" s="0">
         <v>0</v>
@@ -1048,16 +1048,16 @@
         <v>0</v>
       </c>
       <c r="AG5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="0">
         <v>0</v>
       </c>
       <c r="AI5" s="0">
-        <v>0</v>
+        <v>0.89571757501775062</v>
       </c>
       <c r="AJ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="0">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="0">
         <v>0</v>
@@ -1164,13 +1164,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.59675404024587397</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="0">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="AM6" s="0">
-        <v>0</v>
+        <v>0.87509089949499841</v>
       </c>
       <c r="AN6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>0</v>
+        <v>0.92947352317665155</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="AV6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="0">
-        <v>0</v>
+        <v>0.5344214923985926</v>
       </c>
       <c r="AX6" s="0">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="0">
-        <v>0</v>
+        <v>0.61929619185248097</v>
       </c>
       <c r="BA6" s="0">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="BL6" s="0">
-        <v>0</v>
+        <v>0.60224824945776312</v>
       </c>
       <c r="BM6" s="0">
         <v>0</v>
       </c>
       <c r="BN6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="0">
-        <v>0</v>
+        <v>0.65828166635377339</v>
       </c>
       <c r="BP6" s="0">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="0">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="0">
-        <v>0</v>
+        <v>0.70391552384748213</v>
       </c>
       <c r="AH7" s="0">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="0">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="0">
-        <v>0</v>
+        <v>0.70276045774791362</v>
       </c>
       <c r="AP7" s="0">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="BG7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="0">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="0">
-        <v>0</v>
+        <v>0.53665574182549336</v>
       </c>
       <c r="BK7" s="0">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.86337094185418883</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="0">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="0">
-        <v>0</v>
+        <v>0.50850358194123024</v>
       </c>
       <c r="AH8" s="0">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="BG8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="0">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="BM8" s="0">
-        <v>0</v>
+        <v>0.83711337850850231</v>
       </c>
       <c r="BN8" s="0">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>0</v>
+        <v>0.63634018608146015</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="0">
-        <v>0</v>
+        <v>0.59484434296133704</v>
       </c>
       <c r="Z9" s="0">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="0">
-        <v>0</v>
+        <v>0.64004253559290436</v>
       </c>
       <c r="AJ9" s="0">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="AT9" s="0">
-        <v>0</v>
+        <v>0.74662917039478849</v>
       </c>
       <c r="AU9" s="0">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="BP9" s="0">
-        <v>1</v>
+        <v>0.98789388353232088</v>
       </c>
     </row>
     <row r="10">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.9397934689347176</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2036,13 +2036,13 @@
         <v>0</v>
       </c>
       <c r="S10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="0">
         <v>0</v>
       </c>
       <c r="U10" s="0">
-        <v>0</v>
+        <v>0.96824442727667603</v>
       </c>
       <c r="V10" s="0">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="0">
         <v>0</v>
@@ -2096,19 +2096,19 @@
         <v>0</v>
       </c>
       <c r="AM10" s="0">
-        <v>0</v>
+        <v>0.73039632190214854</v>
       </c>
       <c r="AN10" s="0">
         <v>0</v>
       </c>
       <c r="AO10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="0">
         <v>0</v>
       </c>
       <c r="AQ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="0">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="BC10" s="0">
-        <v>0</v>
+        <v>0.95141153409119439</v>
       </c>
       <c r="BD10" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="0">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="0">
-        <v>0</v>
+        <v>0.66556994729007735</v>
       </c>
       <c r="AD11" s="0">
         <v>0</v>
@@ -2308,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="AO11" s="0">
-        <v>0</v>
+        <v>0.78985167012875934</v>
       </c>
       <c r="AP11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="0">
         <v>0</v>
@@ -2383,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="BN11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO11" s="0">
         <v>0</v>
       </c>
       <c r="BP11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2436,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="0">
-        <v>0</v>
+        <v>0.65758124834981524</v>
       </c>
       <c r="P12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="0">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="0">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="0">
-        <v>0</v>
+        <v>0.83366064252006666</v>
       </c>
       <c r="Y12" s="0">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="0">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="0">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="0">
-        <v>0</v>
+        <v>0.61231170061288187</v>
       </c>
       <c r="AK13" s="0">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AM13" s="0">
-        <v>0</v>
+        <v>0.52267123005801353</v>
       </c>
       <c r="AN13" s="0">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="0">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="BL13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM13" s="0">
         <v>0</v>
@@ -2806,13 +2806,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="0">
         <v>0</v>
       </c>
       <c r="C14" s="0">
-        <v>0</v>
+        <v>0.87800688409249383</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>0</v>
+        <v>0.97540844986313702</v>
       </c>
       <c r="Y14" s="0">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="AT14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="0">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="0">
-        <v>0</v>
+        <v>0.87010783537513081</v>
       </c>
       <c r="M15" s="0">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>0</v>
+        <v>0.93050270579383154</v>
       </c>
       <c r="U15" s="0">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="AH15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="0">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="AT15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="0">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="BB15" s="0">
-        <v>0</v>
+        <v>0.81963162051629035</v>
       </c>
       <c r="BC15" s="0">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="BG15" s="0">
-        <v>0</v>
+        <v>0.73863481036813983</v>
       </c>
       <c r="BH15" s="0">
-        <v>0</v>
+        <v>0.5218753095448414</v>
       </c>
       <c r="BI15" s="0">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.86074486455596988</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="0">
-        <v>0</v>
+        <v>0.97882800243759727</v>
       </c>
       <c r="V16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="0">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="0">
-        <v>0</v>
+        <v>0.65880072822212565</v>
       </c>
       <c r="AB16" s="0">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0</v>
+        <v>0.61353792470639923</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="0">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="0">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="BC16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="0">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="BH16" s="0">
-        <v>0</v>
+        <v>0.91596166605859719</v>
       </c>
       <c r="BI16" s="0">
         <v>0</v>
       </c>
       <c r="BJ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK16" s="0">
         <v>0</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="0">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0</v>
+        <v>0.75005020973634329</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="AU17" s="0">
-        <v>0</v>
+        <v>0.71108914066891016</v>
       </c>
       <c r="AV17" s="0">
-        <v>0</v>
+        <v>0.90898548486373876</v>
       </c>
       <c r="AW17" s="0">
         <v>0</v>
       </c>
       <c r="AX17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="0">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="BF17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="0">
         <v>0</v>
@@ -3625,12 +3625,12 @@
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>0</v>
+        <v>0.59356460718194826</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -3675,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.93631183073855839</v>
       </c>
       <c r="Q18" s="0">
-        <v>0</v>
+        <v>0.69723885300447563</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.85578381681088422</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="0">
-        <v>0</v>
+        <v>0.8942266382194739</v>
       </c>
       <c r="AF18" s="0">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AT18" s="0">
-        <v>0</v>
+        <v>0.67204202091737708</v>
       </c>
       <c r="AU18" s="0">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="BE18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="0">
         <v>0</v>
@@ -3860,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>0</v>
+        <v>0.5298362307044624</v>
       </c>
       <c r="J19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="0">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.52792205581620666</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3896,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0</v>
+        <v>0.5760680149955032</v>
       </c>
       <c r="V19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="0">
         <v>0</v>
@@ -3920,10 +3920,10 @@
         <v>0</v>
       </c>
       <c r="AC19" s="0">
-        <v>0</v>
+        <v>0.96031681791181711</v>
       </c>
       <c r="AD19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="0">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="0">
-        <v>0</v>
+        <v>0.51276603616965644</v>
       </c>
       <c r="AJ19" s="0">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AU19" s="0">
-        <v>0</v>
+        <v>0.85200766853461063</v>
       </c>
       <c r="AV19" s="0">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="0">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="0">
-        <v>0</v>
+        <v>0.67533471920107435</v>
       </c>
       <c r="P20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="0">
-        <v>0</v>
+        <v>0.89487337847717963</v>
       </c>
       <c r="AO20" s="0">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="0">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="0">
-        <v>0</v>
+        <v>0.99715683339200245</v>
       </c>
       <c r="K21" s="0">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="0">
-        <v>0</v>
+        <v>0.88979324043279273</v>
       </c>
       <c r="Q21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0</v>
+        <v>0.98106667409995363</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>0</v>
+        <v>0.95580300968634613</v>
       </c>
       <c r="AN21" s="0">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="BF21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="0">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="BJ21" s="0">
-        <v>0</v>
+        <v>0.87919654675867098</v>
       </c>
       <c r="BK21" s="0">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="BP21" s="0">
-        <v>0</v>
+        <v>0.68235171167596698</v>
       </c>
     </row>
     <row r="22">
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="0">
         <v>0</v>
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4553,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="AH22" s="0">
-        <v>0</v>
+        <v>0.61668377607313107</v>
       </c>
       <c r="AI22" s="0">
         <v>0</v>
       </c>
       <c r="AJ22" s="0">
-        <v>0</v>
+        <v>0.68690336101533545</v>
       </c>
       <c r="AK22" s="0">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ22" s="0">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="BN22" s="0">
-        <v>0</v>
+        <v>0.61567588651313232</v>
       </c>
       <c r="BO22" s="0">
         <v>0</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0</v>
+        <v>0.99781116221238064</v>
       </c>
       <c r="B23" s="0">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.82560812331306688</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="BK23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL23" s="0">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="0">
-        <v>0</v>
+        <v>0.96542120821948796</v>
       </c>
       <c r="F24" s="0">
         <v>0</v>
@@ -4899,13 +4899,13 @@
         <v>0</v>
       </c>
       <c r="L24" s="0">
-        <v>0</v>
+        <v>0.64181729460269921</v>
       </c>
       <c r="M24" s="0">
         <v>0</v>
       </c>
       <c r="N24" s="0">
-        <v>0</v>
+        <v>0.66155425746764518</v>
       </c>
       <c r="O24" s="0">
         <v>0</v>
@@ -4932,16 +4932,16 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.78894193306435279</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5049,16 +5049,16 @@
         <v>0</v>
       </c>
       <c r="BJ24" s="0">
-        <v>0</v>
+        <v>0.86773203420568357</v>
       </c>
       <c r="BK24" s="0">
         <v>0</v>
       </c>
       <c r="BL24" s="0">
-        <v>0</v>
+        <v>0.67461187408587631</v>
       </c>
       <c r="BM24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="0">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0">
         <v>0</v>
@@ -5096,13 +5096,13 @@
         <v>0</v>
       </c>
       <c r="I25" s="0">
-        <v>0</v>
+        <v>0.55869731763881614</v>
       </c>
       <c r="J25" s="0">
         <v>0</v>
       </c>
       <c r="K25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="0">
         <v>0</v>
@@ -5138,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="0">
-        <v>0</v>
+        <v>0.74189922200375236</v>
       </c>
       <c r="AP25" s="0">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="AW25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX25" s="0">
         <v>0</v>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="BD25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE25" s="0">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="BJ25" s="0">
-        <v>0</v>
+        <v>0.51238138356458418</v>
       </c>
       <c r="BK25" s="0">
         <v>0</v>
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="BO25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP25" s="0">
         <v>0</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0</v>
+        <v>0.59360911995110721</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -5287,13 +5287,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="0">
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="AG26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="0">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="AW26" s="0">
-        <v>0</v>
+        <v>0.8758337087531558</v>
       </c>
       <c r="AX26" s="0">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="BF26" s="0">
-        <v>0</v>
+        <v>0.56248793393201446</v>
       </c>
       <c r="BG26" s="0">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="0">
-        <v>0</v>
+        <v>0.57782096188110443</v>
       </c>
       <c r="Q27" s="0">
         <v>0</v>
@@ -5577,13 +5577,13 @@
         <v>0</v>
       </c>
       <c r="AF27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="0">
         <v>0</v>
       </c>
       <c r="AH27" s="0">
-        <v>0</v>
+        <v>0.63276983550089727</v>
       </c>
       <c r="AI27" s="0">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="0">
-        <v>0</v>
+        <v>0.89567274977399935</v>
       </c>
       <c r="AQ27" s="0">
         <v>0</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="BA27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="0">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="BK27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL27" s="0">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="0">
         <v>0</v>
@@ -5777,19 +5777,19 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
       </c>
       <c r="AF28" s="0">
-        <v>1</v>
+        <v>0.95820259933637164</v>
       </c>
       <c r="AG28" s="0">
         <v>0</v>
       </c>
       <c r="AH28" s="0">
-        <v>0</v>
+        <v>0.98156089265528179</v>
       </c>
       <c r="AI28" s="0">
         <v>0</v>
@@ -5807,10 +5807,10 @@
         <v>0</v>
       </c>
       <c r="AN28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="0">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="AY28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ28" s="0">
         <v>0</v>
@@ -5885,10 +5885,10 @@
         <v>0</v>
       </c>
       <c r="BN28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO28" s="0">
-        <v>0</v>
+        <v>0.79319441349156905</v>
       </c>
       <c r="BP28" s="0">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="0">
-        <v>0</v>
+        <v>0.63308372251620959</v>
       </c>
       <c r="F29" s="0">
         <v>0</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="0">
-        <v>0</v>
+        <v>0.51863753115169686</v>
       </c>
       <c r="L29" s="0">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>0</v>
+        <v>0.91456079644592803</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="BC29" s="0">
-        <v>0</v>
+        <v>0.54317596748596464</v>
       </c>
       <c r="BD29" s="0">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="BM29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN29" s="0">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>0</v>
+        <v>0.59769246447067903</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="0">
         <v>0</v>
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="AW30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="0">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="BD30" s="0">
-        <v>0</v>
+        <v>0.67924811649757078</v>
       </c>
       <c r="BE30" s="0">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="BM30" s="0">
-        <v>0</v>
+        <v>0.81234943273940741</v>
       </c>
       <c r="BN30" s="0">
         <v>0</v>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="0">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="0">
-        <v>0</v>
+        <v>0.77126748064267558</v>
       </c>
       <c r="S31" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.52119203127683633</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6449,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>0</v>
+        <v>0.50484023069362383</v>
       </c>
       <c r="AW31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX31" s="0">
         <v>0</v>
@@ -6592,10 +6592,10 @@
         <v>0</v>
       </c>
       <c r="AA32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="0">
-        <v>1</v>
+        <v>0.68302798627125938</v>
       </c>
       <c r="AC32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.66342008123163576</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="0">
-        <v>0</v>
+        <v>0.99664165029539231</v>
       </c>
       <c r="AL32" s="0">
         <v>0</v>
@@ -6703,10 +6703,10 @@
         <v>0</v>
       </c>
       <c r="BL32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM32" s="0">
-        <v>0</v>
+        <v>0.65413029154336555</v>
       </c>
       <c r="BN32" s="0">
         <v>0</v>
@@ -6732,16 +6732,16 @@
         <v>0</v>
       </c>
       <c r="E33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="0">
         <v>0</v>
       </c>
       <c r="G33" s="0">
-        <v>0</v>
+        <v>0.66655283825255096</v>
       </c>
       <c r="H33" s="0">
-        <v>0</v>
+        <v>0.97026755900740591</v>
       </c>
       <c r="I33" s="0">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.92619630632589955</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6852,13 +6852,13 @@
         <v>0</v>
       </c>
       <c r="AS33" s="0">
-        <v>0</v>
+        <v>0.8581323808566097</v>
       </c>
       <c r="AT33" s="0">
         <v>0</v>
       </c>
       <c r="AU33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV33" s="0">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="BF33" s="0">
-        <v>0</v>
+        <v>0.57851609716498986</v>
       </c>
       <c r="BG33" s="0">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="0">
-        <v>0</v>
+        <v>0.86474921170237828</v>
       </c>
       <c r="W34" s="0">
         <v>0</v>
@@ -7004,10 +7004,10 @@
         <v>0</v>
       </c>
       <c r="AA34" s="0">
-        <v>0</v>
+        <v>0.622020517457051</v>
       </c>
       <c r="AB34" s="0">
-        <v>0</v>
+        <v>0.99481877150133835</v>
       </c>
       <c r="AC34" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.56584911910459201</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7031,10 +7031,10 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
-        <v>0</v>
+        <v>0.89909211852955051</v>
       </c>
       <c r="AL34" s="0">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="AO34" s="0">
-        <v>0</v>
+        <v>0.61348445790311956</v>
       </c>
       <c r="AP34" s="0">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="AX34" s="0">
-        <v>0</v>
+        <v>0.97748139363058228</v>
       </c>
       <c r="AY34" s="0">
         <v>0</v>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="BF34" s="0">
-        <v>0</v>
+        <v>0.85996094859420724</v>
       </c>
       <c r="BG34" s="0">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="0">
-        <v>0</v>
+        <v>0.58227028353771004</v>
       </c>
       <c r="F35" s="0">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>0</v>
+        <v>0.55207991006984525</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="0">
-        <v>0</v>
+        <v>0.8405669711950372</v>
       </c>
       <c r="T35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="BA35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="0">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         <v>0</v>
       </c>
       <c r="BG35" s="0">
-        <v>0</v>
+        <v>0.98941146369698019</v>
       </c>
       <c r="BH35" s="0">
         <v>0</v>
       </c>
       <c r="BI35" s="0">
-        <v>0</v>
+        <v>0.75042097828381205</v>
       </c>
       <c r="BJ35" s="0">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="BM35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN35" s="0">
         <v>0</v>
@@ -7350,13 +7350,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="0">
         <v>0</v>
       </c>
       <c r="G36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="0">
-        <v>0</v>
+        <v>0.58678531300038239</v>
       </c>
       <c r="N36" s="0">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="0">
-        <v>0</v>
+        <v>0.71597655374859337</v>
       </c>
       <c r="W36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0</v>
+        <v>0.91744148224898148</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="AU36" s="0">
-        <v>0</v>
+        <v>0.85315322000364746</v>
       </c>
       <c r="AV36" s="0">
         <v>0</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="BB36" s="0">
-        <v>0</v>
+        <v>0.66953771398118267</v>
       </c>
       <c r="BC36" s="0">
         <v>0</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="BK36" s="0">
-        <v>0</v>
+        <v>0.89259085341851274</v>
       </c>
       <c r="BL36" s="0">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="BN36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO36" s="0">
         <v>0</v>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="0">
         <v>0</v>
@@ -7637,16 +7637,16 @@
         <v>0</v>
       </c>
       <c r="AF37" s="0">
-        <v>0</v>
+        <v>0.6280175533150727</v>
       </c>
       <c r="AG37" s="0">
         <v>0</v>
       </c>
       <c r="AH37" s="0">
-        <v>0</v>
+        <v>0.7336308935521445</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7673,10 +7673,10 @@
         <v>0</v>
       </c>
       <c r="AR37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="BH37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI37" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0</v>
+        <v>0.71441891230248844</v>
       </c>
       <c r="AK38" s="0">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>0</v>
+        <v>0.52669441070684631</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="AT38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="0">
         <v>0</v>
@@ -7912,13 +7912,13 @@
         <v>0</v>
       </c>
       <c r="BC38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD38" s="0">
         <v>0</v>
       </c>
       <c r="BE38" s="0">
-        <v>0</v>
+        <v>0.70893403312575298</v>
       </c>
       <c r="BF38" s="0">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="BJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK38" s="0">
         <v>0</v>
@@ -7965,13 +7965,13 @@
         <v>0</v>
       </c>
       <c r="D39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="0">
         <v>0</v>
       </c>
       <c r="F39" s="0">
-        <v>0</v>
+        <v>0.66796597919216216</v>
       </c>
       <c r="G39" s="0">
         <v>0</v>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="0">
-        <v>0</v>
+        <v>0.64669894221468227</v>
       </c>
       <c r="K39" s="0">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="0">
-        <v>0</v>
+        <v>0.57159546214431545</v>
       </c>
       <c r="N39" s="0">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="0">
-        <v>0</v>
+        <v>0.55486229626646</v>
       </c>
       <c r="V39" s="0">
         <v>0</v>
@@ -8082,10 +8082,10 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="0">
-        <v>0</v>
+        <v>0.80503866874733321</v>
       </c>
       <c r="AR39" s="0">
-        <v>0</v>
+        <v>0.75150316078257751</v>
       </c>
       <c r="AS39" s="0">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="BE39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF39" s="0">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="0">
-        <v>0</v>
+        <v>0.61399339096048267</v>
       </c>
       <c r="U40" s="0">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="0">
         <v>0</v>
@@ -8282,13 +8282,13 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0</v>
+        <v>0.55057598137010777</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
       </c>
       <c r="AQ40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR40" s="0">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="AU40" s="0">
-        <v>0</v>
+        <v>0.81699230813662327</v>
       </c>
       <c r="AV40" s="0">
         <v>0</v>
@@ -8318,13 +8318,13 @@
         <v>0</v>
       </c>
       <c r="BA40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="0">
         <v>0</v>
       </c>
       <c r="BC40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD40" s="0">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="BH40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI40" s="0">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="0">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="0">
-        <v>0</v>
+        <v>0.87769454161491911</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
@@ -8395,10 +8395,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="0">
-        <v>0</v>
+        <v>0.73070942776584391</v>
       </c>
       <c r="L41" s="0">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="0">
-        <v>0</v>
+        <v>0.89747057611836956</v>
       </c>
       <c r="Z41" s="0">
         <v>0</v>
@@ -8449,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="0">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="AH41" s="0">
-        <v>0</v>
+        <v>0.87693052547094896</v>
       </c>
       <c r="AI41" s="0">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0</v>
+        <v>0.55718836207830835</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="AY41" s="0">
-        <v>0</v>
+        <v>0.98942614165161147</v>
       </c>
       <c r="AZ41" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0</v>
+        <v>0.60344321232285147</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="0">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="0">
-        <v>0</v>
+        <v>0.7428931001329504</v>
       </c>
       <c r="AB42" s="0">
         <v>0</v>
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="0">
-        <v>0</v>
+        <v>0.56831277262229984</v>
       </c>
       <c r="AM42" s="0">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0</v>
+        <v>0.5006140539500592</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.56204263983103475</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="BD42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE42" s="0">
         <v>0</v>
@@ -8748,13 +8748,13 @@
         <v>0</v>
       </c>
       <c r="BG42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH42" s="0">
-        <v>0</v>
+        <v>0.50438644969145052</v>
       </c>
       <c r="BI42" s="0">
-        <v>0</v>
+        <v>0.77946950180212116</v>
       </c>
       <c r="BJ42" s="0">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="0">
         <v>0</v>
@@ -8894,16 +8894,16 @@
         <v>0</v>
       </c>
       <c r="AM43" s="0">
-        <v>0</v>
+        <v>0.82625452847251291</v>
       </c>
       <c r="AN43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO43" s="0">
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0</v>
+        <v>0.62477911807995334</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="AY43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="0">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="BC43" s="0">
-        <v>0</v>
+        <v>0.94583125771917698</v>
       </c>
       <c r="BD43" s="0">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="0">
         <v>0</v>
@@ -9094,13 +9094,13 @@
         <v>0</v>
       </c>
       <c r="AK44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="0">
         <v>0</v>
       </c>
       <c r="AM44" s="0">
-        <v>0</v>
+        <v>0.8661026341286574</v>
       </c>
       <c r="AN44" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.52491718867472881</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.88801308083227903</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="BM44" s="0">
-        <v>0</v>
+        <v>0.84767544164758291</v>
       </c>
       <c r="BN44" s="0">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="0">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="0">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="AG45" s="0">
-        <v>0</v>
+        <v>0.8982997025361803</v>
       </c>
       <c r="AH45" s="0">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
@@ -9318,16 +9318,16 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.64021365261112906</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.93978419566790794</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="BP45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="0">
-        <v>0</v>
+        <v>0.53283430134184429</v>
       </c>
       <c r="J46" s="0">
         <v>0</v>
@@ -9437,10 +9437,10 @@
         <v>0</v>
       </c>
       <c r="N46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="0">
-        <v>0</v>
+        <v>0.55280850428864015</v>
       </c>
       <c r="S46" s="0">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="0">
         <v>0</v>
@@ -9530,13 +9530,13 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.9295173626577502</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.87595484692819614</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="0">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="BO46" s="0">
-        <v>0</v>
+        <v>0.71819691495260285</v>
       </c>
       <c r="BP46" s="0">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0</v>
+        <v>0.67854138381609874</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
       </c>
       <c r="S47" s="0">
-        <v>0</v>
+        <v>0.91590139726914666</v>
       </c>
       <c r="T47" s="0">
         <v>0</v>
@@ -9700,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="AG47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH47" s="0">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="0">
-        <v>0</v>
+        <v>0.93875075198276692</v>
       </c>
       <c r="AK47" s="0">
         <v>0</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="AN47" s="0">
-        <v>0</v>
+        <v>0.9600527073262386</v>
       </c>
       <c r="AO47" s="0">
         <v>0</v>
@@ -9739,13 +9739,13 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.83842151785757046</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9766,13 +9766,13 @@
         <v>0</v>
       </c>
       <c r="BC47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD47" s="0">
         <v>0</v>
       </c>
       <c r="BE47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF47" s="0">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="0">
         <v>0</v>
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>0</v>
+        <v>0.85029948502027253</v>
       </c>
       <c r="R48" s="0">
         <v>0</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="0">
-        <v>0</v>
+        <v>0.88796448973398423</v>
       </c>
       <c r="AF48" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="0">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="BD48" s="0">
-        <v>0</v>
+        <v>0.892589871526418</v>
       </c>
       <c r="BE48" s="0">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="BM48" s="0">
-        <v>0</v>
+        <v>0.63354952431250722</v>
       </c>
       <c r="BN48" s="0">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="0">
-        <v>0</v>
+        <v>0.77699721114876585</v>
       </c>
       <c r="G49" s="0">
         <v>0</v>
@@ -10088,10 +10088,10 @@
         <v>0</v>
       </c>
       <c r="Y49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>0</v>
+        <v>0.76613159201998537</v>
       </c>
       <c r="AA49" s="0">
         <v>0</v>
@@ -10103,10 +10103,10 @@
         <v>0</v>
       </c>
       <c r="AD49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="0">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="BG49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH49" s="0">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="BJ49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK49" s="0">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="BN49" s="0">
-        <v>0</v>
+        <v>0.89321907965537928</v>
       </c>
       <c r="BO49" s="0">
         <v>0</v>
@@ -10228,10 +10228,10 @@
         <v>0</v>
       </c>
       <c r="C50" s="0">
-        <v>0</v>
+        <v>0.52424091060139721</v>
       </c>
       <c r="D50" s="0">
-        <v>0</v>
+        <v>0.93780537555193122</v>
       </c>
       <c r="E50" s="0">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="0">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="AH50" s="0">
-        <v>0</v>
+        <v>0.80136466164833764</v>
       </c>
       <c r="AI50" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.67231994242975279</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="BD50" s="0">
-        <v>0</v>
+        <v>0.73886230805607311</v>
       </c>
       <c r="BE50" s="0">
         <v>0</v>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="BH50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI50" s="0">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="0">
         <v>0</v>
@@ -10548,13 +10548,13 @@
         <v>0</v>
       </c>
       <c r="AO51" s="0">
-        <v>0</v>
+        <v>0.89286680581023181</v>
       </c>
       <c r="AP51" s="0">
         <v>0</v>
       </c>
       <c r="AQ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR51" s="0">
         <v>0</v>
@@ -10575,13 +10575,13 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.57188410961063285</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0</v>
+        <v>0.83880760566905166</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10643,13 +10643,13 @@
         <v>0</v>
       </c>
       <c r="D52" s="0">
-        <v>0</v>
+        <v>0.99732103307627451</v>
       </c>
       <c r="E52" s="0">
         <v>0</v>
       </c>
       <c r="F52" s="0">
-        <v>0</v>
+        <v>0.7645138071840617</v>
       </c>
       <c r="G52" s="0">
         <v>0</v>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="AT52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU52" s="0">
         <v>0</v>
@@ -10784,13 +10784,13 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0</v>
+        <v>0.75396691987383413</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="0">
-        <v>0</v>
+        <v>0.52973863275458222</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
@@ -10876,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="0">
         <v>0</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="AA53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="0">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="AI53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="0">
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="AN53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO53" s="0">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="AV53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW53" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="BE53" s="0">
-        <v>0</v>
+        <v>0.73400674209547234</v>
       </c>
       <c r="BF53" s="0">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="BM53" s="0">
-        <v>0</v>
+        <v>0.75559275026216932</v>
       </c>
       <c r="BN53" s="0">
         <v>0</v>
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="0">
-        <v>1</v>
+        <v>0.69745665290346759</v>
       </c>
       <c r="C54" s="0">
         <v>0</v>
@@ -11088,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="0">
-        <v>0</v>
+        <v>0.57097831706699376</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="0">
-        <v>0</v>
+        <v>0.71803893272768182</v>
       </c>
       <c r="AK54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="BF54" s="0">
-        <v>0</v>
+        <v>0.66702748003428947</v>
       </c>
       <c r="BG54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH54" s="0">
         <v>0</v>
@@ -11279,13 +11279,13 @@
         <v>0</v>
       </c>
       <c r="J55" s="0">
-        <v>0</v>
+        <v>0.62273806055754655</v>
       </c>
       <c r="K55" s="0">
         <v>0</v>
       </c>
       <c r="L55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" s="0">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="0">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="0">
-        <v>0</v>
+        <v>0.77732768700582944</v>
       </c>
       <c r="AD55" s="0">
         <v>0</v>
@@ -11363,13 +11363,13 @@
         <v>0</v>
       </c>
       <c r="AL55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="0">
         <v>0</v>
       </c>
       <c r="AN55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO55" s="0">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="0">
-        <v>0</v>
+        <v>0.83166037948119231</v>
       </c>
       <c r="AR55" s="0">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AU55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV55" s="0">
         <v>0</v>
@@ -11411,13 +11411,13 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.7123302776983006</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="BG55" s="0">
-        <v>0</v>
+        <v>0.72915389200086822</v>
       </c>
       <c r="BH55" s="0">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="0">
-        <v>0</v>
+        <v>0.69815313702960635</v>
       </c>
       <c r="C56" s="0">
         <v>0</v>
@@ -11530,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="0">
         <v>0</v>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="0">
-        <v>0</v>
+        <v>0.61247067458980542</v>
       </c>
       <c r="AE56" s="0">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ56" s="0">
         <v>0</v>
@@ -11599,13 +11599,13 @@
         <v>0</v>
       </c>
       <c r="AV56" s="0">
-        <v>0</v>
+        <v>0.8864845690206371</v>
       </c>
       <c r="AW56" s="0">
         <v>0</v>
       </c>
       <c r="AX56" s="0">
-        <v>0</v>
+        <v>0.60420926377311746</v>
       </c>
       <c r="AY56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.94888353994154873</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11647,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="BL56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM56" s="0">
         <v>0</v>
@@ -11667,13 +11667,13 @@
         <v>0</v>
       </c>
       <c r="B57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="0">
         <v>0</v>
       </c>
       <c r="D57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -11715,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" s="0">
         <v>0</v>
@@ -11775,10 +11775,10 @@
         <v>0</v>
       </c>
       <c r="AL57" s="0">
-        <v>0</v>
+        <v>0.74718812210175301</v>
       </c>
       <c r="AM57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN57" s="0">
         <v>0</v>
@@ -11802,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="AU57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV57" s="0">
         <v>0</v>
@@ -11820,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="BA57" s="0">
-        <v>0</v>
+        <v>0.93363514143697834</v>
       </c>
       <c r="BB57" s="0">
         <v>0</v>
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="BJ57" s="0">
-        <v>0</v>
+        <v>0.66130343905925071</v>
       </c>
       <c r="BK57" s="0">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="0">
-        <v>1</v>
+        <v>0.62783340175639024</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -11918,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="0">
         <v>0</v>
@@ -11930,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" s="0">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="0">
-        <v>0</v>
+        <v>0.5536631129396562</v>
       </c>
       <c r="AA58" s="0">
         <v>0</v>
@@ -11966,10 +11966,10 @@
         <v>0</v>
       </c>
       <c r="AG58" s="0">
-        <v>0</v>
+        <v>0.53222845409787256</v>
       </c>
       <c r="AH58" s="0">
-        <v>0</v>
+        <v>0.74299188301144015</v>
       </c>
       <c r="AI58" s="0">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="BB58" s="0">
-        <v>0</v>
+        <v>0.91698595871254207</v>
       </c>
       <c r="BC58" s="0">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="BK58" s="0">
-        <v>0</v>
+        <v>0.662810734528961</v>
       </c>
       <c r="BL58" s="0">
         <v>0</v>
@@ -12094,10 +12094,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="0">
         <v>0</v>
@@ -12118,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="0">
-        <v>0</v>
+        <v>0.97181360312405274</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="0">
-        <v>0</v>
+        <v>0.86538706216619787</v>
       </c>
       <c r="AJ59" s="0">
         <v>0</v>
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="AP59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ59" s="0">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="AW59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX59" s="0">
         <v>0</v>
@@ -12235,10 +12235,10 @@
         <v>0</v>
       </c>
       <c r="BB59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC59" s="0">
-        <v>0</v>
+        <v>0.88330098217737107</v>
       </c>
       <c r="BD59" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12324,10 +12324,10 @@
         <v>0</v>
       </c>
       <c r="O60" s="0">
-        <v>0</v>
+        <v>0.85799011891073063</v>
       </c>
       <c r="P60" s="0">
-        <v>0</v>
+        <v>0.76705294613680475</v>
       </c>
       <c r="Q60" s="0">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="0">
         <v>0</v>
@@ -12399,13 +12399,13 @@
         <v>0</v>
       </c>
       <c r="AN60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO60" s="0">
         <v>0</v>
       </c>
       <c r="AP60" s="0">
-        <v>0</v>
+        <v>0.79166481351433016</v>
       </c>
       <c r="AQ60" s="0">
         <v>0</v>
@@ -12429,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="AX60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY60" s="0">
         <v>0</v>
@@ -12477,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="BN60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO60" s="0">
         <v>0</v>
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="0">
-        <v>0</v>
+        <v>0.90734391903226164</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
@@ -12551,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" s="0">
         <v>0</v>
@@ -12590,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="AI61" s="0">
-        <v>0</v>
+        <v>0.96233832767474858</v>
       </c>
       <c r="AJ61" s="0">
         <v>0</v>
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="AP61" s="0">
-        <v>0</v>
+        <v>0.89174577106820418</v>
       </c>
       <c r="AQ61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="0">
-        <v>0</v>
+        <v>0.70104607801305674</v>
       </c>
       <c r="C62" s="0">
         <v>0</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="0">
-        <v>0</v>
+        <v>0.76877567786286594</v>
       </c>
       <c r="H62" s="0">
         <v>0</v>
@@ -12739,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="0">
         <v>0</v>
@@ -12754,7 +12754,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="0">
-        <v>0</v>
+        <v>0.52009879637733469</v>
       </c>
       <c r="V62" s="0">
         <v>0</v>
@@ -12763,10 +12763,10 @@
         <v>0</v>
       </c>
       <c r="X62" s="0">
-        <v>0</v>
+        <v>0.78544215546991558</v>
       </c>
       <c r="Y62" s="0">
-        <v>0</v>
+        <v>0.52585238186590311</v>
       </c>
       <c r="Z62" s="0">
         <v>0</v>
@@ -12805,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="AL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="0">
         <v>0</v>
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="AW62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX62" s="0">
         <v>0</v>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="BE62" s="0">
-        <v>0</v>
+        <v>0.97436336197659812</v>
       </c>
       <c r="BF62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.92896361914256653</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12966,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63" s="0">
         <v>0</v>
@@ -12978,7 +12978,7 @@
         <v>0</v>
       </c>
       <c r="AA63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB63" s="0">
         <v>0</v>
@@ -13005,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="0">
-        <v>0</v>
+        <v>0.56118548850155558</v>
       </c>
       <c r="AK63" s="0">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>0</v>
+        <v>0.57173735680064719</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13083,22 +13083,22 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.67902812264614087</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
       </c>
       <c r="BO63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP63" s="0">
         <v>0</v>
@@ -13106,13 +13106,13 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" s="0">
         <v>0</v>
       </c>
       <c r="C64" s="0">
-        <v>0</v>
+        <v>0.940447228446322</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="0">
-        <v>0</v>
+        <v>0.60966340164738586</v>
       </c>
       <c r="G64" s="0">
         <v>0</v>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="0">
         <v>0</v>
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="0">
-        <v>0</v>
+        <v>0.92404261932244414</v>
       </c>
       <c r="Y64" s="0">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="0">
         <v>0</v>
@@ -13271,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="BD64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13333,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="0">
-        <v>0</v>
+        <v>0.96789251101386642</v>
       </c>
       <c r="I65" s="0">
         <v>0</v>
@@ -13381,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="0">
         <v>0</v>
@@ -13396,16 +13396,16 @@
         <v>0</v>
       </c>
       <c r="AC65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD65" s="0">
-        <v>0</v>
+        <v>0.59746948720175597</v>
       </c>
       <c r="AE65" s="0">
         <v>0</v>
       </c>
       <c r="AF65" s="0">
-        <v>0</v>
+        <v>0.72453214924973863</v>
       </c>
       <c r="AG65" s="0">
         <v>0</v>
@@ -13414,7 +13414,7 @@
         <v>0</v>
       </c>
       <c r="AI65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="0">
         <v>0</v>
@@ -13441,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="AR65" s="0">
-        <v>0</v>
+        <v>0.64696095875249759</v>
       </c>
       <c r="AS65" s="0">
         <v>0</v>
@@ -13453,7 +13453,7 @@
         <v>0</v>
       </c>
       <c r="AV65" s="0">
-        <v>0</v>
+        <v>0.80232981542810244</v>
       </c>
       <c r="AW65" s="0">
         <v>0</v>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="0">
-        <v>0</v>
+        <v>0.65922268658092176</v>
       </c>
       <c r="BB65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="0">
         <v>0</v>
@@ -13548,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -13581,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="0">
-        <v>0</v>
+        <v>0.72277250238081781</v>
       </c>
       <c r="W66" s="0">
         <v>0</v>
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
       <c r="AB66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="0">
         <v>0</v>
@@ -13623,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK66" s="0">
         <v>0</v>
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="AW66" s="0">
-        <v>0</v>
+        <v>0.85962018533395357</v>
       </c>
       <c r="AX66" s="0">
         <v>0</v>
@@ -13695,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="BH66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI66" s="0">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.64514987352606401</v>
       </c>
     </row>
     <row r="67">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>0</v>
+        <v>0.67845507932397364</v>
       </c>
       <c r="G67" s="0">
         <v>0</v>
@@ -13796,7 +13796,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z67" s="0">
         <v>0</v>
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="0">
-        <v>0</v>
+        <v>0.95651937860125913</v>
       </c>
       <c r="AC67" s="0">
         <v>0</v>
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="0">
-        <v>0</v>
+        <v>0.65942603270058786</v>
       </c>
       <c r="AU67" s="0">
         <v>0</v>
@@ -13910,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="BK67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL67" s="0">
         <v>0</v>
@@ -13954,13 +13954,13 @@
         <v>0</v>
       </c>
       <c r="I68" s="0">
-        <v>1</v>
+        <v>0.54580657141366951</v>
       </c>
       <c r="J68" s="0">
         <v>0</v>
       </c>
       <c r="K68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="0">
         <v>0</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>0</v>
+        <v>0.91444686023393573</v>
       </c>
       <c r="R68" s="0">
         <v>0</v>
@@ -13990,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="0">
-        <v>0</v>
+        <v>0.5955658302749558</v>
       </c>
       <c r="V68" s="0">
         <v>0</v>
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="0">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.65763662477109164</v>
       </c>
       <c r="BO68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject38.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject38.xlsx
@@ -194,7 +194,7 @@
         <v>0</v>
       </c>
       <c r="W1" s="0">
-        <v>0.55164314465729269</v>
+        <v>0.99781116221238064</v>
       </c>
       <c r="X1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.71229960029974548</v>
+        <v>0.7877880531143715</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="0">
-        <v>0.60124443960101137</v>
+        <v>0.70104607801305674</v>
       </c>
       <c r="BK2" s="0">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>0.73968106860778149</v>
+        <v>0.87800688409249383</v>
       </c>
       <c r="O3" s="0">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="BL3" s="0">
-        <v>0.80317049291677645</v>
+        <v>0.940447228446322</v>
       </c>
       <c r="BM3" s="0">
         <v>0</v>
@@ -893,13 +893,13 @@
         <v>0</v>
       </c>
       <c r="AX4" s="0">
-        <v>0.87188344839774246</v>
+        <v>0.93780537555193122</v>
       </c>
       <c r="AY4" s="0">
         <v>0</v>
       </c>
       <c r="AZ4" s="0">
-        <v>0.50995204950912876</v>
+        <v>0.99732103307627451</v>
       </c>
       <c r="BA4" s="0">
         <v>0.96523102118340109</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="0">
-        <v>0.90489488738176038</v>
+        <v>0.90734391903226164</v>
       </c>
       <c r="BJ4" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.59229305367979102</v>
+        <v>0.59675404024587397</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="0">
-        <v>0.93726202617825582</v>
+        <v>0.96542120821948796</v>
       </c>
       <c r="Y5" s="0">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="AW6" s="0">
-        <v>0.5344214923985926</v>
+        <v>0.77699721114876585</v>
       </c>
       <c r="AX6" s="0">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="0">
-        <v>0.61929619185248097</v>
+        <v>0.7645138071840617</v>
       </c>
       <c r="BA6" s="0">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="BL6" s="0">
-        <v>0.60224824945776312</v>
+        <v>0.60966340164738586</v>
       </c>
       <c r="BM6" s="0">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="BO6" s="0">
-        <v>0.65828166635377339</v>
+        <v>0.67845507932397364</v>
       </c>
       <c r="BP6" s="0">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="0">
-        <v>0.70276045774791362</v>
+        <v>0.87769454161491911</v>
       </c>
       <c r="AP7" s="0">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="0">
-        <v>0.53665574182549336</v>
+        <v>0.76877567786286594</v>
       </c>
       <c r="BK7" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.86337094185418883</v>
+        <v>0.9397934689347176</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="0">
-        <v>0.50850358194123024</v>
+        <v>0.97026755900740591</v>
       </c>
       <c r="AH8" s="0">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="BM8" s="0">
-        <v>0.83711337850850231</v>
+        <v>0.96789251101386642</v>
       </c>
       <c r="BN8" s="0">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="0">
-        <v>0.96824442727667603</v>
+        <v>0.99715683339200245</v>
       </c>
       <c r="V10" s="0">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="0">
-        <v>0.65758124834981524</v>
+        <v>0.87010783537513081</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AM13" s="0">
-        <v>0.52267123005801353</v>
+        <v>0.57159546214431545</v>
       </c>
       <c r="AN13" s="0">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="BG15" s="0">
-        <v>0.73863481036813983</v>
+        <v>0.97181360312405274</v>
       </c>
       <c r="BH15" s="0">
-        <v>0.5218753095448414</v>
+        <v>0.85799011891073063</v>
       </c>
       <c r="BI15" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0.86074486455596988</v>
+        <v>0.93631183073855839</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>0.59356460718194826</v>
+        <v>0.91444686023393573</v>
       </c>
     </row>
     <row r="18">
@@ -3678,7 +3678,7 @@
         <v>0.93631183073855839</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.69723885300447563</v>
+        <v>0.75005020973634329</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>0.5298362307044624</v>
+        <v>0.63634018608146015</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0.52792205581620666</v>
+        <v>0.85578381681088422</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0.5760680149955032</v>
+        <v>0.98106667409995363</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="0">
-        <v>0.51276603616965644</v>
+        <v>0.8405669711950372</v>
       </c>
       <c r="AJ19" s="0">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AU19" s="0">
-        <v>0.85200766853461063</v>
+        <v>0.91590139726914666</v>
       </c>
       <c r="AV19" s="0">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="0">
-        <v>0.67533471920107435</v>
+        <v>0.93050270579383154</v>
       </c>
       <c r="P20" s="0">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="0">
-        <v>0.88979324043279273</v>
+        <v>0.97882800243759727</v>
       </c>
       <c r="Q21" s="0">
         <v>0</v>
@@ -4553,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="AH22" s="0">
-        <v>0.61668377607313107</v>
+        <v>0.86474921170237828</v>
       </c>
       <c r="AI22" s="0">
         <v>0</v>
       </c>
       <c r="AJ22" s="0">
-        <v>0.68690336101533545</v>
+        <v>0.71597655374859337</v>
       </c>
       <c r="AK22" s="0">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="BN22" s="0">
-        <v>0.61567588651313232</v>
+        <v>0.72277250238081781</v>
       </c>
       <c r="BO22" s="0">
         <v>0</v>
@@ -4899,13 +4899,13 @@
         <v>0</v>
       </c>
       <c r="L24" s="0">
-        <v>0.64181729460269921</v>
+        <v>0.83366064252006666</v>
       </c>
       <c r="M24" s="0">
         <v>0</v>
       </c>
       <c r="N24" s="0">
-        <v>0.66155425746764518</v>
+        <v>0.97540844986313702</v>
       </c>
       <c r="O24" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0.78894193306435279</v>
+        <v>0.82560812331306688</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="BL24" s="0">
-        <v>0.67461187408587631</v>
+        <v>0.92404261932244414</v>
       </c>
       <c r="BM24" s="0">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="0">
-        <v>0.55869731763881614</v>
+        <v>0.59484434296133704</v>
       </c>
       <c r="J25" s="0">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="0">
-        <v>0.74189922200375236</v>
+        <v>0.89747057611836956</v>
       </c>
       <c r="AP25" s="0">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="BJ25" s="0">
-        <v>0.51238138356458418</v>
+        <v>0.52585238186590311</v>
       </c>
       <c r="BK25" s="0">
         <v>0</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.59360911995110721</v>
+        <v>0.98515979264737519</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="0">
-        <v>0.57782096188110443</v>
+        <v>0.65880072822212565</v>
       </c>
       <c r="Q27" s="0">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="AH28" s="0">
-        <v>0.98156089265528179</v>
+        <v>0.99481877150133835</v>
       </c>
       <c r="AI28" s="0">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="BO28" s="0">
-        <v>0.79319441349156905</v>
+        <v>0.95651937860125913</v>
       </c>
       <c r="BP28" s="0">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="0">
-        <v>0.63308372251620959</v>
+        <v>0.88642792516529201</v>
       </c>
       <c r="F29" s="0">
         <v>0</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="0">
-        <v>0.51863753115169686</v>
+        <v>0.66556994729007735</v>
       </c>
       <c r="L29" s="0">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>0.91456079644592803</v>
+        <v>0.96031681791181711</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="BC29" s="0">
-        <v>0.54317596748596464</v>
+        <v>0.77732768700582944</v>
       </c>
       <c r="BD29" s="0">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>0.59769246447067903</v>
+        <v>0.61353792470639923</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="0">
-        <v>0.77126748064267558</v>
+        <v>0.8942266382194739</v>
       </c>
       <c r="S31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.52119203127683633</v>
+        <v>0.92619630632589955</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>0.50484023069362383</v>
+        <v>0.88796448973398423</v>
       </c>
       <c r="AW31" s="0">
         <v>0</v>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="0">
-        <v>0.68302798627125938</v>
+        <v>0.95820259933637164</v>
       </c>
       <c r="AC32" s="0">
         <v>0</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="BM32" s="0">
-        <v>0.65413029154336555</v>
+        <v>0.72453214924973863</v>
       </c>
       <c r="BN32" s="0">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="0">
-        <v>0.66655283825255096</v>
+        <v>0.70391552384748213</v>
       </c>
       <c r="H33" s="0">
         <v>0.97026755900740591</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="0">
-        <v>0.8581323808566097</v>
+        <v>0.8982997025361803</v>
       </c>
       <c r="AT33" s="0">
         <v>0</v>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="0">
-        <v>0.622020517457051</v>
+        <v>0.63276983550089727</v>
       </c>
       <c r="AB34" s="0">
         <v>0.99481877150133835</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.56584911910459201</v>
+        <v>0.66342008123163576</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="AO34" s="0">
-        <v>0.61348445790311956</v>
+        <v>0.87693052547094896</v>
       </c>
       <c r="AP34" s="0">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="0">
-        <v>0.58227028353771004</v>
+        <v>0.89571757501775062</v>
       </c>
       <c r="F35" s="0">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>0.55207991006984525</v>
+        <v>0.64004253559290436</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="BI35" s="0">
-        <v>0.75042097828381205</v>
+        <v>0.96233832767474858</v>
       </c>
       <c r="BJ35" s="0">
         <v>0</v>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="0">
-        <v>0.58678531300038239</v>
+        <v>0.61231170061288187</v>
       </c>
       <c r="N36" s="0">
         <v>0</v>
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="AU36" s="0">
-        <v>0.85315322000364746</v>
+        <v>0.93875075198276692</v>
       </c>
       <c r="AV36" s="0">
         <v>0</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="BB36" s="0">
-        <v>0.66953771398118267</v>
+        <v>0.71803893272768182</v>
       </c>
       <c r="BC36" s="0">
         <v>0</v>
@@ -7637,13 +7637,13 @@
         <v>0</v>
       </c>
       <c r="AF37" s="0">
-        <v>0.6280175533150727</v>
+        <v>0.99664165029539231</v>
       </c>
       <c r="AG37" s="0">
         <v>0</v>
       </c>
       <c r="AH37" s="0">
-        <v>0.7336308935521445</v>
+        <v>0.89909211852955051</v>
       </c>
       <c r="AI37" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.71441891230248844</v>
+        <v>0.91744148224898148</v>
       </c>
       <c r="AK38" s="0">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>0.52669441070684631</v>
+        <v>0.56831277262229984</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="BE38" s="0">
-        <v>0.70893403312575298</v>
+        <v>0.74718812210175301</v>
       </c>
       <c r="BF38" s="0">
         <v>0</v>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="0">
-        <v>0.66796597919216216</v>
+        <v>0.87509089949499841</v>
       </c>
       <c r="G39" s="0">
         <v>0</v>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="0">
-        <v>0.64669894221468227</v>
+        <v>0.73039632190214854</v>
       </c>
       <c r="K39" s="0">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="0">
-        <v>0.55486229626646</v>
+        <v>0.95580300968634613</v>
       </c>
       <c r="V39" s="0">
         <v>0</v>
@@ -8082,10 +8082,10 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="0">
-        <v>0.80503866874733321</v>
+        <v>0.82625452847251291</v>
       </c>
       <c r="AR39" s="0">
-        <v>0.75150316078257751</v>
+        <v>0.8661026341286574</v>
       </c>
       <c r="AS39" s="0">
         <v>0</v>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="0">
-        <v>0.61399339096048267</v>
+        <v>0.89487337847717963</v>
       </c>
       <c r="U40" s="0">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.55057598137010777</v>
+        <v>0.55718836207830835</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="AU40" s="0">
-        <v>0.81699230813662327</v>
+        <v>0.9600527073262386</v>
       </c>
       <c r="AV40" s="0">
         <v>0</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="0">
-        <v>0.73070942776584391</v>
+        <v>0.78985167012875934</v>
       </c>
       <c r="L41" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>0.60344321232285147</v>
+        <v>0.92947352317665155</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="0">
-        <v>0.7428931001329504</v>
+        <v>0.89567274977399935</v>
       </c>
       <c r="AB42" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.5006140539500592</v>
+        <v>0.62477911807995334</v>
       </c>
       <c r="AR42" s="0">
         <v>0.56204263983103475</v>
@@ -8751,10 +8751,10 @@
         <v>0</v>
       </c>
       <c r="BH42" s="0">
-        <v>0.50438644969145052</v>
+        <v>0.79166481351433016</v>
       </c>
       <c r="BI42" s="0">
-        <v>0.77946950180212116</v>
+        <v>0.89174577106820418</v>
       </c>
       <c r="BJ42" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.52491718867472881</v>
+        <v>0.56204263983103475</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.64021365261112906</v>
+        <v>0.88801308083227903</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="0">
-        <v>0.53283430134184429</v>
+        <v>0.74662917039478849</v>
       </c>
       <c r="J46" s="0">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="0">
-        <v>0.55280850428864015</v>
+        <v>0.67204202091737708</v>
       </c>
       <c r="S46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.9295173626577502</v>
+        <v>0.93978419566790794</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0.67854138381609874</v>
+        <v>0.71108914066891016</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.83842151785757046</v>
+        <v>0.87595484692819614</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>0.85029948502027253</v>
+        <v>0.90898548486373876</v>
       </c>
       <c r="R48" s="0">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="BM48" s="0">
-        <v>0.63354952431250722</v>
+        <v>0.80232981542810244</v>
       </c>
       <c r="BN48" s="0">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>0.76613159201998537</v>
+        <v>0.8758337087531558</v>
       </c>
       <c r="AA49" s="0">
         <v>0</v>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="0">
-        <v>0.52424091060139721</v>
+        <v>0.9002131588729454</v>
       </c>
       <c r="D50" s="0">
         <v>0.93780537555193122</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="AH50" s="0">
-        <v>0.80136466164833764</v>
+        <v>0.97748139363058228</v>
       </c>
       <c r="AI50" s="0">
         <v>0</v>
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="AO51" s="0">
-        <v>0.89286680581023181</v>
+        <v>0.98942614165161147</v>
       </c>
       <c r="AP51" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.57188410961063285</v>
+        <v>0.67231994242975279</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.75396691987383413</v>
+        <v>0.83880760566905166</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="0">
-        <v>0.52973863275458222</v>
+        <v>0.96523102118340109</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="BE53" s="0">
-        <v>0.73400674209547234</v>
+        <v>0.93363514143697834</v>
       </c>
       <c r="BF53" s="0">
         <v>0</v>
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="0">
-        <v>0.69745665290346759</v>
+        <v>0.91258304955379232</v>
       </c>
       <c r="C54" s="0">
         <v>0</v>
@@ -11088,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="0">
-        <v>0.57097831706699376</v>
+        <v>0.81963162051629035</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="BF54" s="0">
-        <v>0.66702748003428947</v>
+        <v>0.91698595871254207</v>
       </c>
       <c r="BG54" s="0">
         <v>0</v>
@@ -11279,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="0">
-        <v>0.62273806055754655</v>
+        <v>0.95141153409119439</v>
       </c>
       <c r="K55" s="0">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="0">
-        <v>0.83166037948119231</v>
+        <v>0.94583125771917698</v>
       </c>
       <c r="AR55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.7123302776983006</v>
+        <v>0.94888353994154873</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="BG55" s="0">
-        <v>0.72915389200086822</v>
+        <v>0.88330098217737107</v>
       </c>
       <c r="BH55" s="0">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="0">
-        <v>0.69815313702960635</v>
+        <v>0.92299787241570586</v>
       </c>
       <c r="C56" s="0">
         <v>0</v>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="0">
-        <v>0.61247067458980542</v>
+        <v>0.67924811649757078</v>
       </c>
       <c r="AE56" s="0">
         <v>0</v>
@@ -11599,13 +11599,13 @@
         <v>0</v>
       </c>
       <c r="AV56" s="0">
-        <v>0.8864845690206371</v>
+        <v>0.892589871526418</v>
       </c>
       <c r="AW56" s="0">
         <v>0</v>
       </c>
       <c r="AX56" s="0">
-        <v>0.60420926377311746</v>
+        <v>0.73886230805607311</v>
       </c>
       <c r="AY56" s="0">
         <v>0</v>
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="BJ57" s="0">
-        <v>0.66130343905925071</v>
+        <v>0.97436336197659812</v>
       </c>
       <c r="BK57" s="0">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="0">
-        <v>0.62783340175639024</v>
+        <v>0.9904229801791431</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="0">
-        <v>0.5536631129396562</v>
+        <v>0.56248793393201446</v>
       </c>
       <c r="AA58" s="0">
         <v>0</v>
@@ -11966,10 +11966,10 @@
         <v>0</v>
       </c>
       <c r="AG58" s="0">
-        <v>0.53222845409787256</v>
+        <v>0.57851609716498986</v>
       </c>
       <c r="AH58" s="0">
-        <v>0.74299188301144015</v>
+        <v>0.85996094859420724</v>
       </c>
       <c r="AI58" s="0">
         <v>0</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="0">
-        <v>0.86538706216619787</v>
+        <v>0.98941146369698019</v>
       </c>
       <c r="AJ59" s="0">
         <v>0</v>
@@ -12327,7 +12327,7 @@
         <v>0.85799011891073063</v>
       </c>
       <c r="P60" s="0">
-        <v>0.76705294613680475</v>
+        <v>0.91596166605859719</v>
       </c>
       <c r="Q60" s="0">
         <v>0</v>
@@ -12754,7 +12754,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="0">
-        <v>0.52009879637733469</v>
+        <v>0.87919654675867098</v>
       </c>
       <c r="V62" s="0">
         <v>0</v>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="0">
-        <v>0.78544215546991558</v>
+        <v>0.86773203420568357</v>
       </c>
       <c r="Y62" s="0">
         <v>0.52585238186590311</v>
@@ -13005,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="0">
-        <v>0.56118548850155558</v>
+        <v>0.89259085341851274</v>
       </c>
       <c r="AK63" s="0">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>0.57173735680064719</v>
+        <v>0.662810734528961</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.67902812264614087</v>
+        <v>0.92896361914256653</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13399,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="AD65" s="0">
-        <v>0.59746948720175597</v>
+        <v>0.81234943273940741</v>
       </c>
       <c r="AE65" s="0">
         <v>0</v>
@@ -13441,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="AR65" s="0">
-        <v>0.64696095875249759</v>
+        <v>0.84767544164758291</v>
       </c>
       <c r="AS65" s="0">
         <v>0</v>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="0">
-        <v>0.65922268658092176</v>
+        <v>0.75559275026216932</v>
       </c>
       <c r="BB65" s="0">
         <v>0</v>
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="AW66" s="0">
-        <v>0.85962018533395357</v>
+        <v>0.89321907965537928</v>
       </c>
       <c r="AX66" s="0">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.64514987352606401</v>
+        <v>0.65763662477109164</v>
       </c>
     </row>
     <row r="67">
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="0">
-        <v>0.65942603270058786</v>
+        <v>0.71819691495260285</v>
       </c>
       <c r="AU67" s="0">
         <v>0</v>
@@ -13954,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="0">
-        <v>0.54580657141366951</v>
+        <v>0.98789388353232088</v>
       </c>
       <c r="J68" s="0">
         <v>0</v>
@@ -13990,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="0">
-        <v>0.5955658302749558</v>
+        <v>0.68235171167596698</v>
       </c>
       <c r="V68" s="0">
         <v>0</v>
